--- a/biology/Botanique/Eucalyptus_cordata/Eucalyptus_cordata.xlsx
+++ b/biology/Botanique/Eucalyptus_cordata/Eucalyptus_cordata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Eucalyptus cordata est une espèce d'eucalyptus australien de taille moyenne à l'écorce lisse, blanche, verte, violette, grise ou jaune-verdâtre. Les feuilles jeunes sont sessiles, opposées, enserrant la tige, dentelées, rondes ou en forme de cœur, de 10 cm sur 8 cm, vert-gris, glauques; les tiges sont carrées en coupe. Les feuilles adultes sont pétiolées, lancéolées, de 13 cm sur 3,5 cm, concolores, gris-vert ou glauques. Les bourgeons sont disposés par trois à l'aisselle des feuilles, sont sessiles ou très peu pétiolés, glauques, de 1 cm sur 0,6 cm; la base est cylindrique; l'opercule à bec est aplati.
 Les fleurs sont blanches et apparaissent au milieu de l'hiver et au début du printemps.
